--- a/PySimPlot/pysimplot_data_criteria.xlsx
+++ b/PySimPlot/pysimplot_data_criteria.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/developer/mada-bat-picornavirus/PySimPlot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA227A3D-A2B0-F448-B706-80624301639C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BE9552-33FE-EB4B-AA5B-093F4E25B823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3780" yWindow="740" windowWidth="23760" windowHeight="17320" xr2:uid="{3F485DBA-7F28-A043-9065-78B440FC0A20}"/>
   </bookViews>
@@ -887,9 +887,6 @@
     <t>**Yellow highlighted are considered duplicated sequences in Geneious, will not use these</t>
   </si>
   <si>
-    <t>Not going into PySimPlot figure</t>
-  </si>
-  <si>
     <t>Excluding from figure</t>
   </si>
   <si>
@@ -911,16 +908,19 @@
     <t>&lt;3kb</t>
   </si>
   <si>
-    <t>Going into PySimPlot figure</t>
-  </si>
-  <si>
     <t>Going into African bat comparison figure</t>
   </si>
   <si>
-    <t>no African virus for comparison</t>
-  </si>
-  <si>
     <t>KX644943</t>
+  </si>
+  <si>
+    <t>no African bat virus for comparison</t>
+  </si>
+  <si>
+    <t>Going into PySimPlot analysis</t>
+  </si>
+  <si>
+    <t>Not going into PySimPlot analysis</t>
   </si>
 </sst>
 </file>
@@ -1398,14 +1398,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC68403-3DC7-7D49-AF8F-59A8B0DF46BF}">
   <dimension ref="A1:U107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.5" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
     <col min="15" max="15" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3071,7 +3073,7 @@
       <c r="I65" s="1"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
@@ -3081,7 +3083,7 @@
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
       <c r="S65" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="T65" s="2"/>
       <c r="U65" s="3"/>
@@ -3104,7 +3106,7 @@
         <v>7333</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J66" t="s">
         <v>36</v>
@@ -3144,7 +3146,7 @@
         <v>44</v>
       </c>
       <c r="K67" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="S67" t="s">
         <v>2</v>
@@ -3178,7 +3180,7 @@
         <v>44</v>
       </c>
       <c r="K68" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="S68" t="s">
         <v>3</v>
@@ -3198,7 +3200,7 @@
         <v>47</v>
       </c>
       <c r="K69" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S69" t="s">
         <v>4</v>
@@ -3232,7 +3234,7 @@
         <v>48</v>
       </c>
       <c r="K70" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S70" t="s">
         <v>5</v>
@@ -3266,7 +3268,7 @@
         <v>49</v>
       </c>
       <c r="K71" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S71" t="s">
         <v>6</v>
@@ -3300,7 +3302,7 @@
         <v>49</v>
       </c>
       <c r="K72" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="S72" t="s">
         <v>13</v>
@@ -3320,7 +3322,7 @@
         <v>49</v>
       </c>
       <c r="K73" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S73" t="s">
         <v>7</v>
@@ -3354,7 +3356,7 @@
         <v>49</v>
       </c>
       <c r="K74" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S74" t="s">
         <v>8</v>
@@ -3388,7 +3390,7 @@
         <v>52</v>
       </c>
       <c r="K75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S75" t="s">
         <v>9</v>
@@ -3422,7 +3424,7 @@
         <v>41</v>
       </c>
       <c r="K76" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S76" t="s">
         <v>12</v>
@@ -3456,7 +3458,7 @@
         <v>41</v>
       </c>
       <c r="K77" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S77" t="s">
         <v>45</v>
@@ -3490,7 +3492,7 @@
         <v>40</v>
       </c>
       <c r="K78" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S78" t="s">
         <v>17</v>
@@ -3524,7 +3526,7 @@
         <v>43</v>
       </c>
       <c r="K79" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S79" t="s">
         <v>22</v>
@@ -3743,7 +3745,7 @@
         <v>7092</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L89" s="2" t="s">
         <v>36</v>
@@ -3754,7 +3756,7 @@
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Q89" s="2"/>
       <c r="R89" s="2"/>
@@ -3785,7 +3787,7 @@
         <v>39</v>
       </c>
       <c r="M90" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P90" t="s">
         <v>24</v>
@@ -3805,7 +3807,7 @@
         <v>39</v>
       </c>
       <c r="M91" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P91" t="s">
         <v>1</v>
@@ -3839,7 +3841,7 @@
         <v>39</v>
       </c>
       <c r="M92" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P92" t="s">
         <v>2</v>
@@ -3873,7 +3875,7 @@
         <v>43</v>
       </c>
       <c r="M93" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P93" t="s">
         <v>4</v>
@@ -3907,7 +3909,7 @@
         <v>44</v>
       </c>
       <c r="M94" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P94" s="8" t="s">
         <v>5</v>
@@ -3941,7 +3943,7 @@
         <v>44</v>
       </c>
       <c r="M95" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P95" s="8" t="s">
         <v>6</v>
@@ -3961,7 +3963,7 @@
         <v>43</v>
       </c>
       <c r="M96" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P96" s="8" t="s">
         <v>13</v>
@@ -3995,7 +3997,7 @@
         <v>49</v>
       </c>
       <c r="M97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P97" s="8" t="s">
         <v>45</v>
@@ -4014,7 +4016,7 @@
         <v>237</v>
       </c>
       <c r="E98" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F98" t="s">
         <v>245</v>
@@ -4029,7 +4031,7 @@
         <v>52</v>
       </c>
       <c r="M98" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P98" t="s">
         <v>22</v>
@@ -4049,7 +4051,7 @@
         <v>49</v>
       </c>
       <c r="M99" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P99" t="s">
         <v>27</v>
@@ -4069,7 +4071,7 @@
         <v>43</v>
       </c>
       <c r="M100" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P100" t="s">
         <v>28</v>
@@ -4089,7 +4091,7 @@
         <v>46</v>
       </c>
       <c r="M101" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P101" t="s">
         <v>29</v>
@@ -4109,7 +4111,7 @@
         <v>47</v>
       </c>
       <c r="M102" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P102" t="s">
         <v>30</v>
@@ -4129,7 +4131,7 @@
         <v>48</v>
       </c>
       <c r="M103" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P103" t="s">
         <v>31</v>
@@ -4149,7 +4151,7 @@
         <v>49</v>
       </c>
       <c r="M104" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P104" t="s">
         <v>32</v>
@@ -4183,7 +4185,7 @@
         <v>49</v>
       </c>
       <c r="M105" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P105" t="s">
         <v>34</v>
